--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_3.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_3.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_3_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1624,4 +1625,4475 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B445"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>特殊字符</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>命名</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>重名</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>现有</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>开头</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>换行符</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>目的</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>多行</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>个人主页</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>群是</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>完全相同</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>类似</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>旧</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>合适</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>完善</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>介绍</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>请</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>规范</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>检测</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>非法</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>过滤</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>实施</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>无意</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>一行</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>默默</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>换行</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>一部分</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>后该</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>替换</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>一致性</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>锁定</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>对此</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>微弱</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>两方</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>听到</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>平衡</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>字体</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>组群</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>不止</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>如图</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>字样</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>仅仅</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>指明</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>检查</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>唯一性</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>令人</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>定位</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>度</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>指引</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>多次重复</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>过该</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>过度</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>系统资源</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>次地</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>建设者</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>消耗</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>已用</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>超长</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>词汇</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>当前情况</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>粘贴</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>汉字</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>为群</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>不合理</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>不仅仅</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>预见</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>涉及</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>合理性</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>改进</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>图中</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>归类</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>空群</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>明确规定</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>停留</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>过大</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ceshi</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>四次</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>开发人员</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>注意</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>对群</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>大桥</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>gduit</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>误入</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>省略号</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>代替</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>社区</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>协议</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>合法</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>字</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>文字说明</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>模糊不清</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>安全性</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>命令</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>过多</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>复杂</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>一群</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>主</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>边界值</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>省略</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>截断</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>忽视</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>尊重</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>合法性</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>或样</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>例</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>示例</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>争议</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>三道</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>杠</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>更换</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>测试者</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>无障碍</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>排</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>第一</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>所要</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>却排</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>较长</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_3.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_3.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,447 +437,701 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000009862</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>问题描述：群名称输入框显示错误，提示信息与预期不符。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>群 名称 输入框 错误 提示信息 预期 不符</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000008662</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>该图像显示了一个搜索界面，其中包含多个群组名称和对应的人数。问题在于搜索功能似乎无法正确展示结果，因为“ceshi”这个群组的名称被错误地重复显示了四次，而实际上只有两个相关的群组存在。</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>搜索 界面 包含 多个 群组 名称 对应 人数 搜索 无法 正确 展示 ceshi 群组 名称 错误 重复 四次 实际上 两个 相关 群组</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007930</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>该图像显示了一个搜索界面，其中包含多个群组名称和对应的人数。问题在于搜索功能似乎无法正确展示结果，因为“ceshi”这个群组的名称被错误地重复显示了四次，而实际上只有两个相关的群组存在。</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>搜索 界面 包含 多个 群组 名称 对应 人数 搜索 无法 正确 展示 ceshi 群组 名称 错误 重复 四次 实际上 两个 相关 群组</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>该应用程序在创建群组时存在一个明显的bug。当尝试创建两个具有相同名称和相同成员的群组时，系统未能正确检测到群组已存在的情况，导致两个相同的群组被创建。这可能会导致用户的困扰，因为他们无法区分这两个相同的群组。此外，这种情况还可能导致数据冗余或其他未预期的问题。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>应用程序 创建 群组 明显 创建 两个 具有 相同 名称 相同 成员 群组 系统 未能 正确 检测 群组 情况 两个 相同 群组 创建 困扰 无法 区分 两个 相同 群组 情况 数据 冗余 未 预期</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008302</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>该问题描述了一个软件功能错误，即在相同的联系人和用户的情况下，软件允许创建两个不同的群聊。尽管两个群聊的成员和目的都是相同的，但群聊的名称不同。这可能导致用户混淆，并可能影响群聊的管理和使用。此问题需要软件开发人员注意，以确保在类似情况下只有一个群聊被创建。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>软件 错误 相同 联系人 情况 软件 允许 创建 两个 不同 群聊 两个 群聊 成员 目的 相同 群聊 名称 不同 混淆 群聊 管理 软件 开发人员 注意 确保 类似 情况 群聊 创建</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008257</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>根据问题描述和对应的图片，这个bug表现为：在群组成功创建并修改名称后，非群主的成员无法对群名称进行修改或请求加入群策略。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>对应 图片 表现 群组 成功 创建 修改 名称 非 群主 成员 无法 对群 名称 进行 修改 请求 加入 群 策略</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008088</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>当用户发起群聊，进入搜索和群名设置，人员和群名全部重复，应用没有提示重复创建，而是重复建立多个相同群组</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>发起 群聊 进入 搜索 群名 设置 人员 群名 重复 应用 没有 提示 重复 创建 重复 建立 多个 相同 群组</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000007899</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>该软件的群聊功能存在明显的设计缺陷。在“我的群聊”列表中，多个群聊的名称相同，如“大桥”和“gduit测试1”，这导致了用户无法通过名称来区分相同的群聊。由于缺乏区分标识，用户可能会误入错误的群聊，从而影响沟通效率和用户体验。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>群聊 明显 设计 缺陷 群聊 列表 多个 群聊 名称 相同 大桥 gduit 无法 名称 区分 相同 群聊 缺乏 区分 标识 误入 错误 群聊 沟通 效率</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008903</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>在群组名称过长，导致超出显示范围的情况下，该软件通过省略号来代替未完全显示的群组名称。然而，对于其他群成员来说，他们只能看到部分显示的群名，而非完整的群名。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>群组 名称 过长 超出 范围 情况 省略号 代替 未 完全 群组 名称 群 成员 只能 看到 部分 群名 非 完整 群名</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000009174</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>该软件在用户尝试创建群组时遇到了一个bug。当用户将群名称设置为空或者群名称超过64个字符，并点击“确定”按钮时，创建群组的操作并未成功完成，但系统并没有提供任何错误提示或警告信息，导致用户无法得知问题的具体原因。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>创建 群组 遇到 群 名称 设置 为空 群 名称 超过 64 个字符 点击 确定 按钮 创建 群组 并未 成功 完成 系统 没有 提供 错误 提示 警告 信息 无法 得知 具体 原因</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000008322</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>该bug描述如下：在创建群聊的过程中，当用户在选择了好友之后进入填写群名称页面。如果用户在不填写群名称的情况下直接点击确认按钮，系统并未给予用户任何提示信息表明“请填写群名称”。此功能缺陷可能导致用户体验不佳，无法及时知道必须填写群名称才能成功创建群聊。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>创建 群聊 过程 选择 好友 之后 进入 填写 群 名称 页面 填写 群 名称 情况 点击 确认 按钮 系统 并未 给予 提示信息 表明 请 填写 群 名称 缺陷 不佳 无法 及时 知道 必须 填写 群 名称 成功 创建 群聊</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000008357</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>这是一个软件功能错误。当用户在群聊设置中选择了40个用户并进入填写群名称页面后，他们期望能够成功创建一个新的群聊。然而，当前情况是，尽管他们已经填写了群名称并点击了确认按钮，但系统并没有执行新建群聊的操作，而是停留在当前的填写群名称的页面，导致用户无法继续操作，这显然是一个严重的功能问题，可能会对用户体验造成负面影响。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>软件 错误 群聊 设置 选择 40 进入 填写 群 名称 页面 期望 能够 成功 创建 新 群聊 当前情况 填写 群 名称 点击 确认 按钮 系统 没有 执行 新建 群聊 停留 当前 填写 群 名称 页面 无法 继续 显然 严重 造成 负面影响</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000009006</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>该软件在填写群名称时存在一个bug，用户无法通过粘贴的方式输入汉字。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>填写 群 名称 无法 粘贴 方式 输入 汉字</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008353</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>这个软件在群组名称和用户名称部分没有实施关键字过滤，这可能导致了软件被用于非法目的。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>软件 群组 名称 名称 部分 没有 实施 关键字 过滤 软件 用于 非法 目的</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008100</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>在创建群的界面，当用户试图创建一个已存在的同名群时，系统没有提供任何提示信息，而是直接允许了新群的创建。这导致了两个具有相同名称、成员和权限的群同时存在，这不符合用户的预期和使用习惯。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>创建 群 界面 试图 创建 同名 群时 系统 没有 提供 提示信息 允许 新群 创建 两个 具有 相同 名称 成员 权限 群 符合 预期 习惯</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000009752</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>该软件的群组创建功能存在缺陷，具体表现为群名称的限制设置不合理。根据问题描述，当前的设置允许用户输入任何字符来创建群组，而不仅仅是字母和数字。这导致了特殊字符也可以被用于创建群组，可能导致一些不可预见的问题或困扰。例如，如果允许使用特殊字符作为群名，可能会导致名称混淆或难以识别。此外，这样的设计也可能会给用户带来误导，让他们误以为特殊字符是可以接受的输入。综上所述，这个bug涉及到群组创建功能的合理性和用户体验方面，需要进一步的优化和改进。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>群组 创建 缺陷 具体表现 为群 名称 限制 设置 不合理 当前 设置 允许 输入 字符 创建 群组 不仅仅 字母 数字 特殊字符 用于 创建 群组 不可 预见 困扰 允许 特殊字符 群名 名称 混淆 难以 识别 设计 带来 误导 误以为 特殊字符 接受 输入 涉及 群组 创建 合理性 方面 进一步 优化 改进</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000009060</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>在群组搜索功能中，当用户输入数字进行查找时，系统错误地展示了包含该数字的群组名称。这意味着即使用户输入的数字并不存在于任何群组的名称中，系统仍然返回了匹配的结果。这显然违反了用户的期望，可能导致用户混淆和不便。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>群组 搜索 输入 数字 进行 查找 系统 错误 展示 包含 数字 群组 名称 意味着 输入 数字 群组 名称 系统 仍然 返回 匹配 显然 违反 期望 混淆 不便</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009496</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>在群组设置中，群主尝试修改群的名称。然而，当修改完成后，只有在进入“群组设置”页面时才能看到新的群名称，而在聊天界面中，群名称并未更新，仍显示为旧的名称。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>群组 设置 群主 修改 群 名称 修改 完成 进入 群组 设置 页面 看到 新 群 名称 聊天 界面 群 名称 并未 更新 旧 名称</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008219</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>图中显示了一个手机界面，其中以“q”开头的几个群都是同一个用户邀请的。然而，系统没有能够正确识别出这些群是由同一个用户创建的，导致了重复创建的问题。此外，那些不是用户自己创建的群也被归类在了“我的群组”中。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>图中 手机 界面 q 开头 几个 群 同一个 邀请 系统 没有 能够 正确 识别 出 群是 同一个 创建 重复 创建 创建 群 归类 群组</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009272</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>创建群聊时，不可在没有添加成员的情况下创建。（不可创建空群）</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>创建 群聊 不可 没有 添加 成员 情况 创建 不可 创建 空群</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008445</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>该应用在新建群组时，未对用户输入的群名称进行适当的验证和提示。首先，应用没有明确规定群名称的长度限制，这可能导致用户创建过长或过短的群名称，影响其他用户的使用体验。其次，应用没有明确说明群名称的命名规则，使得用户可能创建不符合平台或社区规定的名称，从而违反了应用的使用协议。最后，当用户输入的群名称不合法时，应用并未给出明确的提示或警告，这可能会导致用户误认为可以随意输入任何内容，而忽视了对其他用户的尊重和平台的规范。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>应用 新建 群组 未 输入 群 名称 进行 适当 验证 提示 应用 没有 明确规定 群 名称 长度 限制 创建 过长 短 群 名称 应用 没有 明确 说明 群 名称 命名 规则 创建 符合 平台 社区 规定 名称 违反 应用 协议 最后 输入 群 名称 合法 应用 并未 给出 明确 提示 警告 误认为 随意 输入 内容 忽视 尊重 平台 规范</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000008915</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>该应用程序在创建群组时，没有提供关于群名称合法性的提示或样例。用户输入的名称可能会被立即接受，而不经过任何验证或示例展示。这可能会导致用户创建不符合平台规定的名称，从而引发潜在的问题或争议。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>应用程序 创建 群组 没有 提供 群 名称 合法性 提示 或样 例 输入 名称 立即 接受 验证 示例 展示 创建 符合 平台 规定 名称 引发 潜在 争议</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000008218</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>在进入聊天界面并点击群组图标后，进入“我的群组”界面。在该界面右上角点击三道杠图标以发起群聊。通过重复步骤5到8，可以成功创建群组，名称为“123”。然而，当尝试再次创建具有相同名称的新群组时，系统未能给出预期的提示信息“该群已创建，请更换群名称”。相反，测试者能够无障碍地创建具有相同名称的群组。这表明系统在处理群组名称重复的情况时存在缺陷。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>进入 聊天 界面 点击 群组 图标 进入 群组 界面 界面 右上角 点击 三道 杠 图标 发起 群聊 重复 成功 创建 群组 名称 123 再次 创建 具有 相同 名称 新 群组 系统 未能 给出 预期 提示信息 该群 创建 请 更换 群 名称 相反 测试者 能够 无障碍 创建 具有 相同 名称 群组 表明 系统 处理 群组 名称 重复 情况 缺陷</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000008392</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>在朋友页面的右上角，当用户选择“发起群聊”功能后，系统未能有效地检测到已创建的同名群聊，导致用户在创建另一个具有相同名称的群聊时，系统没有给出重复的提示。这可能导致了群聊命名的混乱和不便。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>朋友 页面 右上角 选择 发起 群聊 系统 未能 有效 检测 创建 同名 群聊 创建 具有 相同 名称 群聊 系统 没有 给出 重复 提示 群聊 命名 混乱 不便</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008386</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>该软件在群名称管理方面存在逻辑错误，允许用户添加具有相同名称的群组。当尝试创建或添加与现有群组同名的新群组时，系统并未提供任何提示信息，表明了这一冲突。这违反了软件的设计原则和预期功能，可能导致用户混淆和不便。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>群 名称 管理 方面 逻辑 错误 允许 添加 具有 相同 名称 群组 创建 添加 现有 群组 同名 新 群组 系统 并未 提供 提示信息 表明 冲突 违反 软件 设计 原则 预期 混淆 不便</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000009004</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>该图片显示了一个手机聊天界面，其中群名称以空格开头，这违反了某些应用程序的设计规则，因为许多应用程序的群组名称不允许以空格开头。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>图片 手机 聊天 界面 群 名称 空格 开头 违反 应用程序 设计 规则 应用程序 群组 名称 允许 空格 开头</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000008909</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1.步骤重现
      (1)进入群聊界面。
@@ -889,7 +1143,7 @@
      自己所要找的群名称却排在最后。不便于查询。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>. 重现 
            ( ) 进入 群聊 界面 
@@ -901,611 +1155,935 @@
            所要 找 群 名称 却排 最后 查询</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008691</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>在这张图片中，我们可以看到一个手机屏幕截图，显示了一个群聊界面。问题描述中提到“群名称无法显示全部”，这可能意味着群聊的名称在某些情况下没有完全展示出来。从图片中可以看出，部分群聊名称被截断了，只显示了部分字符，而其余的部分则被省略了。这种情况可能会导致用户难以识别或完整地看到群聊的名称。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>图片 看到 手机 屏幕 截图 群聊 界面 提到 群 名称 无法 意味着 群聊 名称 情况 没有 完全 展示 图片 看出 部分 群聊 名称 截断 部分 字符 部分 省略 情况 难以 识别 完整 看到 群聊 名称</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000009317</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>问题描述：在尝试建立群组时，用户只能输入群组名称，但系统并未提供任何关于群组名称长度的提示信息。当用户创建群组时，他们可能不清楚群组名称的最大允许字符数，这可能导致无法成功创建群组或需要多次尝试才能找到合适的名称长度。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>建立 群组 只能 输入 群组 名称 系统 并未 提供 群组 名称 长度 提示信息 创建 群组 清楚 群组 名称 最大 允许 字符 数 无法 成功 创建 群组 多次 找到 合适 名称 长度</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009016</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>该问题描述了一个软件界面上关于群名称设置的显示问题。在界面中，群名称的要求字与字符的描述不清晰，导致用户难以理解如何正确设置群的名称。图片展示了这个问题的具体界面，其中相关文字说明模糊不清，无法为用户提供明确的指导。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>软件 界面 群 名称 设置 界面 群 名称 要求 字 字符 清晰 难以 理解 正确 设置 群 名称 图片 展示 具体 界面 相关 文字说明 模糊不清 无法 提供 明确 指导</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000009164</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>在创建群组的过程中，当用户尝试使用已经存在的群名称进行创建时，系统没有给予明确的反馈提示，导致用户无法区分当前操作的群组是否已存在。这可能会导致用户重复创建相同的群组，从而造成混淆和不便。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>创建 群组 过程 群 名称 进行 创建 系统 没有 给予 明确 反馈 提示 无法 区分 当前 群组 是否 重复 创建 相同 群组 造成 混淆 不便</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009292</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>问题描述：
 该软件在创建群组时，用户成功输入了群名称并填写了相关信息后保存。但在输出反馈中，没有提供重名提醒导致创建失败的信息。这意味着即使两个群的名称重复，系统也会默认为一个群创建成功，而不会给出任何提示或警告。这样的bug可能会导致用户无意中创建了多个相同名称的群组，给用户带来不便。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">
  创建 群组 成功 输入 群 名称 填写 相关 信息 保存 输出 反馈 没有 提供 重名 提醒 创建 失败 信息 意味着 两个 群 名称 重复 系统 默认 群 创建 成功 不会 给出 提示 警告 无意 创建 多个 相同 名称 群组 带来 不便</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009670</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该应用程序存在一个bug，导致在创建了使用特定群名称“ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh”的群后，用户仍然可以使用相同的群名来创建新的群。这违反了正常的群组命名规则，可能导致混淆和重复的群组。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>应用程序 创建 特定 群 名称 ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh 群后 仍然 相同 群名 创建 新 群 违反 正常 群组 命名 规则 混淆 重复 群组</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009439</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>该应用程序在创建重名群组时没有提供任何警告或提示，导致用户可能无意中创建了与现有群组名称相同的新群组。这可能会导致混淆和不便，因为没有明确的反馈机制来通知用户他们的新群组名称已被另一个现有的群组使用。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>应用程序 创建 重名 群组 没有 提供 警告 提示 无意 创建 现有 群组 名称 相同 新 群组 混淆 不便 没有 明确 反馈 机制 通知 新 群组 名称 现有 群组</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>10010000008052</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>一个用户能够同时创建多个有相同名称和相同成员的群</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>能够 创建 多个 相同 名称 相同 成员 群</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009542</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在软件的群聊名称输入区域，用户能够输入包含特殊字符的名称。这可能会导致软件处理这些名称时出现问题，从而影响其安全性和稳定性。例如，某些特殊字符可能被误解为代码或命令，导致不必要的操作或错误。此外，如果特殊字符过多或过于复杂，可能会增加存储和管理群聊名称的复杂性，从而降低软件的效率和可靠性。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>软件 群聊 名称 输入 区域 能够 输入 包含 特殊字符 名称 软件 处理 名称 出现 安全性 稳定性 特殊字符 误解 代码 命令 不必要 错误 特殊字符 过多 过于 复杂 增加 存储 管理 群聊 名称 复杂性 降低 软件 效率 可靠性</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008452</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>群名称可以重名，查找群通过群名称时会遇到麻烦</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>群 名称 重名 查找 群 群 名称 时会 遇到 麻烦</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009501</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>该软件在创建群组的过程中存在一个明显的bug。同一群主尝试创建两个具有相同名称的群组，这违反了软件的规则或逻辑，导致无法正确执行操作。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>创建 群组 过程 明显 一群 主 创建 两个 具有 相同 名称 群组 违反 软件 规则 逻辑 无法 正确 执行</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>10010000009294</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>该问题描述了一个软件或应用程序的群名称输入功能存在边界值过大的问题。当用户尝试输入一个非常长的群名称时，系统可能无法正确处理或显示这个名称，导致输入失败或显示错误。这个问题可能会导致用户体验不佳，因为用户可能无法为群组设置一个合适的名称。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>软件 应用程序 群 名称 输入 边界值 过大 输入 非常 长 群 名称 系统 无法 正确处理 名称 输入 失败 错误 不佳 无法 群组 设置 合适 名称</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>10010000008978</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>在创建群的界面中，当用户使用换行符作为群名称或描述的一部分时，系统会将换行符自动替换为空格。这导致了保存后的群信息与原始输入的布局不一致。具体来说，如果用户在群名称或描述中使用了换行，保存后该部分内容会变为一行，而不是多行显示。这可能会给用户带来困扰，因为他们预期的是多行的布局效果。因此，建议对此功能进行优化，直接禁止用户在创建群时使用换行符，以确保输出内容的一致性和用户的使用体验。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>创建 群 界面 换行符 群 名称 一部分 系统 换行符 自动 替换 空格 保存 群 信息 原始 输入 布局 一致 具体来说 群 名称 换行 保存 后该 部分 内容 变为 一行 多行 带来 困扰 预期 多行 布局 效果 建议 对此 进行 优化 禁止 创建 群时 换行符 确保 输出 内容 一致性</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000008091</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>该界面的“创建群组”部分存在视觉设计问题。蓝色的群名称字体过小，与其它元素相比显得过于微弱，导致整个界面的视觉平衡被破坏。这种设计不一致可能会给用户带来困扰，影响他们使用该功能的体验。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>界面 创建 群组 部分 视觉 设计 蓝色 群 名称 字体 元素 相比 显得 过于 微弱 整个 界面 视觉 平衡 破坏 设计 一致 带来 困扰</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>10010000007703</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>进行完操作2后A，B两方听到的与操作1相同</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>进行 完 A B 两方 听到 相同</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000008165</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该软件界面显示了三个群组，每个群组的名称都是相同的。这可能导致用户在搜索特定群组时感到困扰，因为无法从名称上区分它们。此外，由于群组名称的重复，用户可能需要额外步骤来找到他们想要的群组，从而增加了操作复杂性。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>界面显示 三个 群组 每个 群组 名称 相同 搜索 特定 群组 感到 困扰 无法 名称 区分 群组 名称 重复 额外 找到 想要 群组 增加 复杂性</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000007989</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>该软件在创建群组时存在一个bug。当用户新建群聊并设置名称和加群方式后，软件界面似乎被锁定了，不允许用户继续添加或编辑其他信息。此外，原本的设计意图是允许群建设者在完善群介绍等信息后再创建群聊，以便于所有入群的成员了解群的目的和活动内容。但目前的软件设计似乎没有实现这一功能，导致用户无法在创建群聊前对群的介绍和其他相关信息进行编辑或完善。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>创建 群组 新建 群聊 设置 名称 加群 方式 软件 界面 锁定 允许 继续 添加 编辑 信息 原本 设计 意图 允许 群 建设者 完善 群 介绍 信息 创建 群聊 入群 成员 了解 群 目的 活动 内容 目前 软件设计 没有 实现 这一 无法 创建 群聊 前 群 介绍 相关 信息 进行 编辑 完善</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000008932</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>该应用程序似乎没有实施适当的群组创建限制，导致同一用户可以无限次地创建包含相同用户的同名群组。这可能会导致系统资源的过度消耗，并可能导致用户界面的混乱和难以管理。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>应用程序 没有 实施 适当 群组 创建 限制 同一 无限 次地 创建 包含 相同 同名 群组 系统资源 过度 消耗 用户界面 混乱 难以 管理</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000009636</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>填写群名称时，填写多行，错误删除时，一次删除了一行。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>填写 群 名称 填写 多行 错误 删除 一次 删除 一行</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000007976</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>在创建群聊时，系统未能有效识别并提醒用户关于相同名称的重名现象。这可能会导致用户在不知情的情况下创建具有相同名称的两个群聊，从而引起混淆和不便。例如，在图像中显示了两个名为“群聊1”的群聊，这可能会造成用户的困扰。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>创建 群聊 系统 未能 有效 识别 提醒 相同 名称 重名 现象 不知情 情况 创建 具有 相同 名称 两个 群聊 引起 混淆 不便 两个 名为 群聊 群聊 造成 困扰</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000008790</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>创建群组时，群组名称没有过滤。一些非法等词汇可以设置，</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>创建 群组 群组 名称 没有 过滤 非法 词汇 设置</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000008393</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>在创建群聊时，用户发现即使两次尝试创建完全相同的群（包括相同的群成员和名称），系统并未提供任何提示或警告。这可能导致了重复创建的问题，而没有适当的反馈机制来指导用户避免这种情况。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>创建 群聊 发现 两次 创建 完全相同 群 包括 相同 群 成员 名称 系统 并未 提供 提示 警告 重复 创建 没有 适当 反馈 机制 指导 避免 情况</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008821</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>新建群-群命名可以重复已用的群名称</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>新建 群 - 群 命名 重复 已用 群 名称</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000010026</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>群名称过长时,没有超长提示.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>群 名称 过长 , 没有 超长 提示 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000009411</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>用户在修改用户名后，在群中的名称有时不能及时刷新</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>修改 用户名 群中 名称 不能 及时 刷新</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009593</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>在搜索群时，如果组群名称重复用户无法区分</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>搜索 群时 组群 名称 重复 无法 区分</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008845</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>这个bug描述的问题是，当用户在尝试创建名称为"555"的群聊时，系统没有正确地告知用户已经创建过该群，导致用户可以多次重复创建同名的群聊。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>创建 名称 " 555 " 群聊 系统 没有 正确 告知 创建 过该 群 多次重复 创建 同名 群聊</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000008382</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>该软件界面显示，当用户尝试创建与已有群名称相同的新群时，系统未能成功创建，而是提示“创建失败”。这可能是因为系统的群名称唯一性检查机制出现了问题。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>界面显示 创建 已有 群 名称 相同 新 群时 系统 未能 成功 创建 提示 创建 失败 是因为 系统 群 名称 唯一性 检查 机制 出现</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000008337</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>该问题描述了一个软件界面的bug，即在用户在好友或群组中更改了他们的用户名后，其他群组成员仍然看到旧的用户名而不是新修改的名称。这可能表明软件在更新用户显示名称方面存在延迟或错误。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>软件 界面 好友 群组 更改 用户名 群 组成员 仍然 看到 旧 用户名 新 修改 名称 表明 软件 更新 名称 方面 延迟 错误</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009337</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>创建群聊时，填写群聊名称。限制长度为64个字符，但是在用户第一次填写群聊名称时没有指明，而仅仅在创建群聊之后，修改群名称才出现明确的字样要求，如图</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>创建 群聊 填写 群聊 名称 限制 长度 64 个字符 第一次 填写 群聊 名称 没有 指明 仅仅 创建 群聊 之后 修改 群 名称 出现 明确 字样 要求 如图</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000009203</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>在群组中，用户的显示名称与其个人主页上显示的名称不一致。具体表现为，在群组中用户显示为默认昵称，但点击其头像进入个人主页时，该用户的名字已经更新为修改后的名称。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>群组 名称 个人主页 名称 一致 具体表现 群组 默认 昵称 点击 头像 进入 个人主页 名字 更新 修改 名称</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000008820</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>在群组命名有问题。在我的群组列表中出现两个完全相同的群组名称，无论是群组人员是否相同都可以名称相同，影响使用。当我用群名称搜索群是出现不止一个令人混淆</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>群组 命名 群组 列表 出现 两个 完全相同 群组 名称 无论是 群组 人员 是否 相同 名称 相同 群 名称 搜索 群是 出现 不止 令人 混淆</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008407</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>问题描述：当用户在创建名为“默默默默”的群聊后，尝试再次创建一个同名的群聊时，系统未能阻止该操作。尽管名称重复，但群聊仍被成功创建。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>创建 名为 默默 默默 群聊 再次 创建 同名 群聊 系统 未能 阻止 名称 重复 群聊 成功 创建</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009371</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>当用户尝试创建两个具有相同名称的群组时，系统没有提供任何警告或提示信息来告知用户这种操作可能会导致命名冲突。此外，在显示群组列表时，系统未能区分这两个相同的群组，导致它们被错误地排列在一起，且布局混乱，无法为用户提供清晰的视觉指引。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>创建 两个 具有 相同 名称 群组 系统 没有 提供 警告 提示信息 告知 命名 冲突 群组 列表 系统 未能 区分 两个 相同 群组 错误 排列 一起 布局 混乱 无法 提供 清晰 视觉 指引</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009303</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>群名称的创建没有规范，任何符号都可以创建</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>群 名称 创建 没有 规范 符号 创建</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000008739</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>1.步骤重现
      (1)进入聊天界面;
@@ -1518,7 +2096,7 @@
      修改成功。这样当群成员一样，就会存在冗余。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>. 重现 
            ( ) 进入 聊天 界面 ; 
@@ -1531,94 +2109,134 @@
            修改 成功 当群 成员 冗余</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000009850</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>用户名称修改之后，在用户资料页面显示的还是之前的名称</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>名称 修改 之后 资料 页面 之前 名称</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009083</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>搜索好友，名称不是按名称匹配度显示查询结果的</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>搜索 好友 名称 名称 匹配 度 查询</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000009318</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>这个软件界面显示了一个群组的名称编辑功能，允许用户修改群名称。然而，这种设计可能导致用户难以通过搜索和重新进入他们之前创建或加入的群组，因为一旦群名称被修改，原始的名称可能不再与用户的记录匹配。这可能会对用户的使用体验造成一定的困扰，尤其是如果他们依赖原始名称来快速定位特定的群组时。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>软件 界面显示 群组 名称 编辑 允许 修改 群 名称 设计 难以 搜索 重新 进入 之前 创建 加入 群组 群 名称 修改 原始 名称 不再 记录 匹配 造成 一定 困扰 尤其 依赖 原始 名称 快速 定位 特定 群组</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009201</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>该软件界面显示的群名称设置功能中，没有明确的提示表明字数限制的存在。用户在尝试设置一个较长的群名称时，可能会发现名称超出预期长度而无法成功保存，导致用户体验不佳。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>界面显示 群 名称 设置 没有 明确 提示 表明 字数 限制 设置 较长 群 名称 发现 名称 超出 预期 长度 无法 成功 保存 不佳</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009525</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>创建群时，可以创建相同名称的群组，不会出类似“名称”已被用的提醒</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>创建 群时 创建 相同 名称 群组 不会 出 类似 名称 提醒</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
